--- a/data_structure.xlsx
+++ b/data_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -312,18 +312,6 @@
     <t>#67B419</t>
   </si>
   <si>
-    <t>#5b2287</t>
-  </si>
-  <si>
-    <t>#BFBFBF</t>
-  </si>
-  <si>
-    <t>SCP</t>
-  </si>
-  <si>
-    <t>QCP</t>
-  </si>
-  <si>
     <t>LCP</t>
   </si>
   <si>
@@ -393,13 +381,10 @@
     <t>Resource Manager</t>
   </si>
   <si>
-    <t>Client  Partner</t>
-  </si>
-  <si>
-    <t>Portfolio  Owner</t>
-  </si>
-  <si>
     <t>KAM</t>
+  </si>
+  <si>
+    <t>ClusterID</t>
   </si>
 </sst>
 </file>
@@ -461,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -508,11 +493,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -553,6 +547,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,7 +835,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>69</v>
@@ -1238,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>70</v>
@@ -1270,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>71</v>
@@ -1300,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
         <v>72</v>
@@ -1323,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
         <v>73</v>
@@ -1593,19 +1590,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1618,8 +1615,11 @@
       <c r="D1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1627,489 +1627,469 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>5</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>13</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>16</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>17</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>19</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>20</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>18</v>
+      <c r="E18" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>21</v>
       </c>
       <c r="B19" s="14">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>102</v>
+      <c r="C19" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>19</v>
+      <c r="E19" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>22</v>
       </c>
       <c r="B20" s="14">
         <v>1</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>25</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14">
-        <v>1</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
-        <f>A25+1</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
-        <f t="shared" ref="A27:A35" si="0">A26+1</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>94</v>
+      <c r="C27" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B28" s="14">
         <v>2</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B29" s="14">
         <v>2</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" s="14">
         <v>2</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="14">
-        <v>2</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="14">
-        <v>2</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="14">
-        <v>2</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="14">
-        <v>2</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="14">
-        <v>2</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35">
         <v>1</v>
       </c>
     </row>
@@ -2124,7 +2104,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2160,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2206,32 +2186,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2242,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2258,24 +2216,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2283,14 +2241,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2298,14 +2255,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2313,14 +2269,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2328,14 +2283,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2343,93 +2297,89 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
+      <c r="C8" s="19">
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
         <v>7</v>
       </c>
+      <c r="C9" s="19">
+        <v>14</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" ref="A11:A31" si="1">A10+1</f>
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" s="19">
-        <v>12</v>
+      <c r="C11">
+        <v>11</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="19">
-        <v>14</v>
+      <c r="C12">
+        <v>12</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2439,11 +2389,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>12</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2451,17 +2400,18 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
       <c r="C14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2469,48 +2419,41 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2518,14 +2461,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2533,14 +2475,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2548,14 +2489,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2563,14 +2503,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2578,14 +2517,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2593,11 +2531,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -2608,14 +2545,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2623,14 +2559,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2638,14 +2573,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2653,14 +2587,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2668,106 +2601,15 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>22</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>22</v>
-      </c>
-      <c r="C31">
-        <v>23</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" ref="A32:A34" si="2">A31+1</f>
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>24</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>23</v>
-      </c>
-      <c r="C33">
-        <v>25</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>24</v>
-      </c>
-      <c r="C34">
-        <v>25</v>
-      </c>
-      <c r="D34">
         <v>1</v>
       </c>
     </row>

--- a/data_structure.xlsx
+++ b/data_structure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRA81HC\Desktop\WorkPlace\Repositories\bosch-git\Newfolder\RoleNxtAPIs\target\classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OrgChart\project\Dagre-d3\orgchart\target\classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Consultant</t>
   </si>
   <si>
-    <t>Specialist</t>
-  </si>
-  <si>
     <t>SQM</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>KRA3</t>
   </si>
   <si>
-    <t>KRA4</t>
-  </si>
-  <si>
     <t>KRA5</t>
   </si>
   <si>
@@ -324,9 +318,6 @@
     <t>4,</t>
   </si>
   <si>
-    <t>5,</t>
-  </si>
-  <si>
     <t>6,</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>CoE Head</t>
   </si>
   <si>
-    <t>Sr. Specialist</t>
-  </si>
-  <si>
     <t>Project  Manager C</t>
   </si>
   <si>
@@ -385,6 +373,51 @@
   </si>
   <si>
     <t>ClusterID</t>
+  </si>
+  <si>
+    <t>(Senior) Specialist</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;Advance knowledge in software architect design&lt;/li&gt;
+&lt;li&gt;Expert in Programming technique focus in security, performance &amp; maintainability&lt;/li&gt;
+&lt;li&gt;Expert knowledge in Agile Scrum, RDCT process and application operation process&lt;/li&gt;
+&lt;li&gt;Advance knowledge in technical risk handling methodology&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;SLAs and KPIs on track as per the project plan&lt;/li&gt;
+&lt;li&gt;Zero Quality concerns due to design issue&lt;/li&gt;
+&lt;li&gt;On-time delivery of the planned tasks &lt;/li&gt;
+&lt;li&gt;Delivered defects under control through Review effectiveness &lt;/li&gt;
+&lt;li&gt;Visible collaboration with team&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;Prepare low-level design (LLD) with considering security, performance &amp; maintainability relating the area/sub-area to which the respective resource has been assigned.&lt;/li&gt;
+&lt;li&gt;Realize or govern the realization, as the case may be, of the LLD. Realization covers the entire spectrum of activities in delivering the solution e.g. development specifications, coding, data migration, testing, system set-up/installation, interface  set-up.&lt;/li&gt;
+&lt;li&gt;Go-To resource for all maintenance support issues relating to the respective sub-area.&lt;/li&gt;
+&lt;li&gt;Go-To resource for realization issues relating to the respective sub-area.&lt;/li&gt;
+&lt;li&gt;For presales, realize the Demo/POC/Artifact/Estimation/Sales Collateral assigned.&lt;/li&gt;
+&lt;li&gt;Realize innovation topics assigned.&lt;/li&gt;
+&lt;li&gt;Execute practice building activities assigned e.g. Self-learning on new areas/topics, External Training, Asset Building, Innovation, Competency Assessment &amp; development    &lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Technical Lead Software&lt;/div&gt;
+&lt;div&gt;Specialist&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;1 years experience in software design&lt;/li&gt;
+&lt;li&gt;Minimum 6 years experience in related technologies&lt;/li&gt;
+&lt;li&gt;Experience of Specialist role for minimum 2 years with consistent performance&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>8,</t>
   </si>
 </sst>
 </file>
@@ -506,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -552,6 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1165,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1140,34 +1174,34 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,10 +1227,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>15</v>
@@ -1235,10 +1269,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>19</v>
@@ -1267,17 +1301,17 @@
         <v>20</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1297,10 +1331,19 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
+        <v>107</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1320,10 +1363,10 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1463,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1583,6 +1626,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1590,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1613,10 +1667,10 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1661,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1695,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1712,13 +1766,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1729,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1740,13 +1794,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="14">
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1759,237 +1813,232 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="14">
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="14">
         <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="14">
         <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="20">
-        <v>3</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="14">
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="14">
         <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>97</v>
+      <c r="C15" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="14">
         <v>1</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>98</v>
+      <c r="C16" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>20</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="E16" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>19</v>
-      </c>
-      <c r="B17" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
       <c r="E17" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="14">
         <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="14">
         <v>1</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" s="14">
         <v>1</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="20">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="14">
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="14">
         <v>2</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1997,13 +2046,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="14">
         <v>2</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -2011,27 +2060,27 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="14">
         <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="14">
         <v>2</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>51</v>
+      <c r="C26" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2039,13 +2088,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>91</v>
+      <c r="C27" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2053,13 +2102,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="14">
         <v>2</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2067,29 +2116,15 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="14">
         <v>2</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
-        <v>34</v>
-      </c>
-      <c r="B30" s="14">
-        <v>2</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30">
         <v>1</v>
       </c>
     </row>
@@ -2122,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.25">
@@ -2178,7 +2213,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.25">
@@ -2186,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2200,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2216,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2289,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2300,10 +2335,10 @@
         <v>9</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>7</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2365,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2373,13 +2408,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2389,29 +2424,27 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2419,10 +2452,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -2433,13 +2466,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2447,13 +2480,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2461,13 +2494,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2475,13 +2508,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2489,13 +2522,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2503,13 +2536,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2517,13 +2550,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2531,13 +2564,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2545,13 +2578,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2559,13 +2592,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2573,43 +2606,15 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>25</v>
-      </c>
-      <c r="D28">
         <v>1</v>
       </c>
     </row>
